--- a/biology/Médecine/Albert_Hyman/Albert_Hyman.xlsx
+++ b/biology/Médecine/Albert_Hyman/Albert_Hyman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albert S. Hyman (1893-1972), est un cardiologue new-yorkais qui, avec son frère Charles, construisit dans les années 1930 à 1932 un dispositif électro-mécanique qui était l'un des premiers stimulateurs cardiaques artificiels. L'appareil a été, apparemment, testé sur des animaux de laboratoire et au moins un patient humain[1].
-Le stimulateur cardiaque a été inventé par le Dr Mark C Lidwell, anesthésiste australien qui l'a utilisé pour réanimer un nouveau-né à l'hôpital "Women's Crown Street", à Sydney, en 1926. C'est cependant Hyman qui a utilisé et popularisé le terme « stimulateur cardiaque », qui reste en usage à ce jour[2],[3]
-Lidwell n'avait pas déposé de brevet de son invention et a choisi de rester anonyme pendant de nombreuses années pour éviter toute controverse publique, et le stimulateur d'Hyman n'a pas gagné l'acceptation générale de la communauté médicale, qui s'opposait à lui dans ses efforts pour populariser l'utilisation de son invention[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert S. Hyman (1893-1972), est un cardiologue new-yorkais qui, avec son frère Charles, construisit dans les années 1930 à 1932 un dispositif électro-mécanique qui était l'un des premiers stimulateurs cardiaques artificiels. L'appareil a été, apparemment, testé sur des animaux de laboratoire et au moins un patient humain.
+Le stimulateur cardiaque a été inventé par le Dr Mark C Lidwell, anesthésiste australien qui l'a utilisé pour réanimer un nouveau-né à l'hôpital "Women's Crown Street", à Sydney, en 1926. C'est cependant Hyman qui a utilisé et popularisé le terme « stimulateur cardiaque », qui reste en usage à ce jour,
+Lidwell n'avait pas déposé de brevet de son invention et a choisi de rester anonyme pendant de nombreuses années pour éviter toute controverse publique, et le stimulateur d'Hyman n'a pas gagné l'acceptation générale de la communauté médicale, qui s'opposait à lui dans ses efforts pour populariser l'utilisation de son invention.
 </t>
         </is>
       </c>
